--- a/biology/Zoologie/Asyl_(poule)/Asyl_(poule).xlsx
+++ b/biology/Zoologie/Asyl_(poule)/Asyl_(poule).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Asyl ou aseel est une race de coq de combat.
 </t>
@@ -511,25 +523,172 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-C'est une volaille au type combattant caractéristique de l'Asie du Sud, avec une crête en forme de noix, un regard agressif, des Tarses puissants et un plastron développé. Le plumage est serré.
-Origine
-Originaire de l'Inde, sélection européenne depuis 1860 de l'ancienne race Rajah. Elle est reconnue parmi les 108 races de poule du British Poultry Standard.
-Standard officiel
-Masse idéale : Coq : 2,5 à 3 kg ; Poule : 1,75 à 2,25 kg
+C'est une volaille au type combattant caractéristique de l'Asie du Sud, avec une crête en forme de noix, un regard agressif, des Tarses puissants et un plastron développé. Le plumage est serré.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Asyl_(poule)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asyl_(poule)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire de l'Inde, sélection européenne depuis 1860 de l'ancienne race Rajah. Elle est reconnue parmi les 108 races de poule du British Poultry Standard.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Asyl_(poule)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asyl_(poule)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Standard officiel</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Masse idéale : Coq : 2,5 à 3 kg ; Poule : 1,75 à 2,25 kg
 Crête : en noix
 Oreillons : rouges
 Couleur des yeux : iris perle
 Couleur des Tarses : jaune
-Variétés de plumage : tricolore à camail doré, sauvage, brun faisan, noir caillouté blanc, blanche, bleu argenté, à selle rouge, etc.
-Grande race
-Masse idéale : Coq : 2,5 à 3 kg ; Poule : 1,75 à 2,25 kg
+Variétés de plumage : tricolore à camail doré, sauvage, brun faisan, noir caillouté blanc, blanche, bleu argenté, à selle rouge, etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Asyl_(poule)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asyl_(poule)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Standard officiel</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Grande race</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Masse idéale : Coq : 2,5 à 3 kg ; Poule : 1,75 à 2,25 kg
 Œufs à couver : 40 g, coquille crème à brun clair
-Diamètre des bagues : Coq : 20 mm ; Poule : 18 mm
-Race naine
-Masse idéale : Coq : 1 kg ; Poule : 800 g
+Diamètre des bagues : Coq : 20 mm ; Poule : 18 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Asyl_(poule)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asyl_(poule)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Standard officiel</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Race naine</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Masse idéale : Coq : 1 kg ; Poule : 800 g
 Œufs à couver : 30 g, coquille crème à brun clair
 Diamètre des bagues : Coq : 14 mm ; Poule : 12 mm</t>
         </is>
